--- a/data/hotels_by_city/Houston/Houston_shard_681.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_681.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d2216547-Reviews-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-Willowbrook.h2133714.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1003 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r579114760-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>2216547</t>
+  </si>
+  <si>
+    <t>579114760</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Great guy</t>
+  </si>
+  <si>
+    <t>I have made the hotel home. I will start with the rooms.The rooms are clean and big.The kitchen comes in handy all appliances work.The ac blows wonderful. I want to make sure I don't miss anything are anyone.The front desk guy Sammy is amazing they couldn't run the place without him.If you need anything day are night Sammy will make you are taking care of. I will miss the ole fellow keep up the good work Sammy aka Mr.WoodSprings.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>I have made the hotel home. I will start with the rooms.The rooms are clean and big.The kitchen comes in handy all appliances work.The ac blows wonderful. I want to make sure I don't miss anything are anyone.The front desk guy Sammy is amazing they couldn't run the place without him.If you need anything day are night Sammy will make you are taking care of. I will miss the ole fellow keep up the good work Sammy aka Mr.WoodSprings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r578175765-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578175765</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Stays here have been pretty good as far as hospitality goes. The cleaning crew have been prompt and management as well as the various staff members are great. Joni and Christina were helpful each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Stays here have been pretty good as far as hospitality goes. The cleaning crew have been prompt and management as well as the various staff members are great. Joni and Christina were helpful each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r576961321-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576961321</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Great Staff - Joni</t>
+  </si>
+  <si>
+    <t>I have really enjoyed my stay and I highly recommend WoodSpring Suites to anybody especially if you are staying a long period of time.It’s very clean, safe and even have an on-site laundry facility that’s very convieniant.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>I have really enjoyed my stay and I highly recommend WoodSpring Suites to anybody especially if you are staying a long period of time.It’s very clean, safe and even have an on-site laundry facility that’s very convieniant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r575068462-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575068462</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>Cheap and family friendly, Sam at the front desk is great  Spent awhile there and I don’t have any complaints with anything. Only they need vh1 on the tv that’s about it. Recommend for long term or a couple nights stayMoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Cheap and family friendly, Sam at the front desk is great  Spent awhile there and I don’t have any complaints with anything. Only they need vh1 on the tv that’s about it. Recommend for long term or a couple nights stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r568489650-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568489650</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>You’ve got to be kidding me.</t>
+  </si>
+  <si>
+    <t>I reserved a room in advance before coming out to come check in &amp; them telling me there’s no rooms available unless it’s on the smoking floor (which there reason to why was “I don’t know”) which I said yes too thinking it wasn’t going to be too bad. What am I supposed to do nearly 8pm with a baby. They told us they’d send towels up since they supposedly ran out. I went down &amp; got them myself 2 days later. People above us were constantly loud, sounded like throwing furniture. Sounded like people brought it their own speakers &amp; played loud music until 10pm which kept our baby up way past her bed time &amp; screwed up our sleep. Constant yelling &amp; slamming doors through out middle of night. The pillows &amp; bed bed are god awful uncomfortable. Some guests are pretty friendly then I got others banging on my wall, making my baby fall over. No, this hotel is not “family-friendly”. We have nice baby roach pets too. WiFi is always cutting out and it isn’t even worth connecting to. The carpet is dirty, walking around barefoot turns the bottom of my feet black. Don’t come unless you wanna wake up at 5am because you need to evacuate the building since the fire alarm is going off. 
+We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for...I reserved a room in advance before coming out to come check in &amp; them telling me there’s no rooms available unless it’s on the smoking floor (which there reason to why was “I don’t know”) which I said yes too thinking it wasn’t going to be too bad. What am I supposed to do nearly 8pm with a baby. They told us they’d send towels up since they supposedly ran out. I went down &amp; got them myself 2 days later. People above us were constantly loud, sounded like throwing furniture. Sounded like people brought it their own speakers &amp; played loud music until 10pm which kept our baby up way past her bed time &amp; screwed up our sleep. Constant yelling &amp; slamming doors through out middle of night. The pillows &amp; bed bed are god awful uncomfortable. Some guests are pretty friendly then I got others banging on my wall, making my baby fall over. No, this hotel is not “family-friendly”. We have nice baby roach pets too. WiFi is always cutting out and it isn’t even worth connecting to. The carpet is dirty, walking around barefoot turns the bottom of my feet black. Don’t come unless you wanna wake up at 5am because you need to evacuate the building since the fire alarm is going off. We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for 1. I don’t want to come back, don’t offer it. This place doesn’t make me feel one tiny little sliver bit safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>I reserved a room in advance before coming out to come check in &amp; them telling me there’s no rooms available unless it’s on the smoking floor (which there reason to why was “I don’t know”) which I said yes too thinking it wasn’t going to be too bad. What am I supposed to do nearly 8pm with a baby. They told us they’d send towels up since they supposedly ran out. I went down &amp; got them myself 2 days later. People above us were constantly loud, sounded like throwing furniture. Sounded like people brought it their own speakers &amp; played loud music until 10pm which kept our baby up way past her bed time &amp; screwed up our sleep. Constant yelling &amp; slamming doors through out middle of night. The pillows &amp; bed bed are god awful uncomfortable. Some guests are pretty friendly then I got others banging on my wall, making my baby fall over. No, this hotel is not “family-friendly”. We have nice baby roach pets too. WiFi is always cutting out and it isn’t even worth connecting to. The carpet is dirty, walking around barefoot turns the bottom of my feet black. Don’t come unless you wanna wake up at 5am because you need to evacuate the building since the fire alarm is going off. 
+We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for...I reserved a room in advance before coming out to come check in &amp; them telling me there’s no rooms available unless it’s on the smoking floor (which there reason to why was “I don’t know”) which I said yes too thinking it wasn’t going to be too bad. What am I supposed to do nearly 8pm with a baby. They told us they’d send towels up since they supposedly ran out. I went down &amp; got them myself 2 days later. People above us were constantly loud, sounded like throwing furniture. Sounded like people brought it their own speakers &amp; played loud music until 10pm which kept our baby up way past her bed time &amp; screwed up our sleep. Constant yelling &amp; slamming doors through out middle of night. The pillows &amp; bed bed are god awful uncomfortable. Some guests are pretty friendly then I got others banging on my wall, making my baby fall over. No, this hotel is not “family-friendly”. We have nice baby roach pets too. WiFi is always cutting out and it isn’t even worth connecting to. The carpet is dirty, walking around barefoot turns the bottom of my feet black. Don’t come unless you wanna wake up at 5am because you need to evacuate the building since the fire alarm is going off. We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for 1. I don’t want to come back, don’t offer it. This place doesn’t make me feel one tiny little sliver bit safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r568352632-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568352632</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Great hotel all around</t>
+  </si>
+  <si>
+    <t>I absolutely loved the stay here. The employee Sam that helped me was fantastic. He helped will all of my needs, answered all of my questions, and was super friendly. The rest of the staff was great as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>I absolutely loved the stay here. The employee Sam that helped me was fantastic. He helped will all of my needs, answered all of my questions, and was super friendly. The rest of the staff was great as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r561713229-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561713229</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t>This place is so clean. The office employees are very professional, helpful and super warming. I can't help coming back time after time. No drama or BS. You. An tell they appreciate their travelers. Amanda, Christina, Tiffany, Tony,  and Tristan are awesome employees very warm and family friendly place.  I recommend this place to my family and strangers. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>This place is so clean. The office employees are very professional, helpful and super warming. I can't help coming back time after time. No drama or BS. You. An tell they appreciate their travelers. Amanda, Christina, Tiffany, Tony,  and Tristan are awesome employees very warm and family friendly place.  I recommend this place to my family and strangers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r561520332-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561520332</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Clean safe place awesome front desk crew!</t>
+  </si>
+  <si>
+    <t>I love this spot. It’s family friendly and very safe. The front desk crew are very helpful and friendly. Great daily and weekly rates in a clean environment. I’ve been a regular traveler here for awhile. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I love this spot. It’s family friendly and very safe. The front desk crew are very helpful and friendly. Great daily and weekly rates in a clean environment. I’ve been a regular traveler here for awhile. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r552519102-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552519102</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Best Staff Ever!</t>
+  </si>
+  <si>
+    <t>I've been here for about 7 months now. You won't find better people than those employed here. The front desk crew are professional and really friendly. The maintenance responds immediately and again just a great person. The housekeeping is thorough, polite, and professional. Can't say enough about the staff. Definitely 5 Star Service. On another note, I was here before, during and after Hurricane Harvey and this place was a refuge for many people as it did not flood and the power stayed on while places 1 mile away in every direction were under 10 feet of water. They opened their door to displaced families and rescue workers alike. What a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>I've been here for about 7 months now. You won't find better people than those employed here. The front desk crew are professional and really friendly. The maintenance responds immediately and again just a great person. The housekeeping is thorough, polite, and professional. Can't say enough about the staff. Definitely 5 Star Service. On another note, I was here before, during and after Hurricane Harvey and this place was a refuge for many people as it did not flood and the power stayed on while places 1 mile away in every direction were under 10 feet of water. They opened their door to displaced families and rescue workers alike. What a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r503749801-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503749801</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place!! </t>
+  </si>
+  <si>
+    <t>Awesome front desk crew. They remember you and are cool to talk to. Very helpful and will work with you. Great place to stay, close to the freeway. Back streets make it easy to longboard to nearest convenient stores and restaurants. Rooms come with a stove and sink. TV comes with great channels. Rooms are clean and decently pricedMoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Awesome front desk crew. They remember you and are cool to talk to. Very helpful and will work with you. Great place to stay, close to the freeway. Back streets make it easy to longboard to nearest convenient stores and restaurants. Rooms come with a stove and sink. TV comes with great channels. Rooms are clean and decently pricedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r502956877-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502956877</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Great place to relax</t>
+  </si>
+  <si>
+    <t>Great place to unwind and relax. Recommend by out of towner. Fiesta is a mile away and so is Walmart. A few fast food restaurants are scattered around within a mile or two. There are also a variety of different Asian restaurants that you might want to give a try. I, personally, have not tried, but it's on my bucket list!MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Great place to unwind and relax. Recommend by out of towner. Fiesta is a mile away and so is Walmart. A few fast food restaurants are scattered around within a mile or two. There are also a variety of different Asian restaurants that you might want to give a try. I, personally, have not tried, but it's on my bucket list!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r502222550-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502222550</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Extended stay hotel</t>
+  </si>
+  <si>
+    <t>I have been staying at the extended stay for 2 months..when I first arrived I wasnt exactly pleasedwiththe cleanliness of the beds.There was hair in the sheets but theydid offer to shampoo my carpet since I had an infant. The  Gm amanda and cristina were very helpful and informative. I was pleased that I was able to bring my dog with me as well. They have a clean laundry room and all the machines are always working. The staff is always friendly and helpful...I have never had any issues that werent resolved immediately, all around I have been very pleased with my stay and the pricing was very decent and I would recommend this place to friends and family .MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at the extended stay for 2 months..when I first arrived I wasnt exactly pleasedwiththe cleanliness of the beds.There was hair in the sheets but theydid offer to shampoo my carpet since I had an infant. The  Gm amanda and cristina were very helpful and informative. I was pleased that I was able to bring my dog with me as well. They have a clean laundry room and all the machines are always working. The staff is always friendly and helpful...I have never had any issues that werent resolved immediately, all around I have been very pleased with my stay and the pricing was very decent and I would recommend this place to friends and family .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r484470688-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484470688</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Super Friendly and Helpful service</t>
+  </si>
+  <si>
+    <t>The room was extremely clean &amp; the frpnt desk workers Amanda &amp; Jennifer were always very professional and polite!   The ground were kept clean and much more kept up at this location than other Woodsprings locations my company has used!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>The room was extremely clean &amp; the frpnt desk workers Amanda &amp; Jennifer were always very professional and polite!   The ground were kept clean and much more kept up at this location than other Woodsprings locations my company has used!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r484462646-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484462646</t>
+  </si>
+  <si>
+    <t>.Great Value</t>
+  </si>
+  <si>
+    <t>Excellent Value for the price. Always Clean, supportive and professional staff and great location. A safe place to stay. Always a parking space available.The laundry room is a fair rate and clean. The kitchen in the room is good size and very functional.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Excellent Value for the price. Always Clean, supportive and professional staff and great location. A safe place to stay. Always a parking space available.The laundry room is a fair rate and clean. The kitchen in the room is good size and very functional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r484455717-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484455717</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>I travel to Houston at least once a month and I always stay at this hotel! The customer service is great, the room is always clean, and I love the location. I will continue to use this hotel on my trips to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to Houston at least once a month and I always stay at this hotel! The customer service is great, the room is always clean, and I love the location. I will continue to use this hotel on my trips to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r462097836-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462097836</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>For the Amount, the value is exceptional. The front desk personel (GM Amanda &amp; Assistant GM Christina) are extremely courtious and attentive to needs. They are friendly and engage with  the customer for a worry free stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>For the Amount, the value is exceptional. The front desk personel (GM Amanda &amp; Assistant GM Christina) are extremely courtious and attentive to needs. They are friendly and engage with  the customer for a worry free stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r460713257-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460713257</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Great Location. Great Service</t>
+  </si>
+  <si>
+    <t>The location was great and very convenient. Erin at the front desk was very helpful. She was always available to answer any questions I had.  The room was clean and well maintained. The area is really quiet at night.  I would recommend Woodspring Suites to anyone coming to this areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>The location was great and very convenient. Erin at the front desk was very helpful. She was always available to answer any questions I had.  The room was clean and well maintained. The area is really quiet at night.  I would recommend Woodspring Suites to anyone coming to this areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r458563103-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458563103</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Erin the front desk girl was very helpful and polite. She knows how to do her job all and all my stay there was great and will be staying there again soon I loved that all had vending machines awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2017</t>
+  </si>
+  <si>
+    <t>Erin the front desk girl was very helpful and polite. She knows how to do her job all and all my stay there was great and will be staying there again soon I loved that all had vending machines awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r444335675-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444335675</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Garcia </t>
+  </si>
+  <si>
+    <t>Came to stay for work.It was very clean and quite.The staff was very friendly.Christina had nice customer service and went over and beyond to make my stay GOOD.Will come back next time when where in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Came to stay for work.It was very clean and quite.The staff was very friendly.Christina had nice customer service and went over and beyond to make my stay GOOD.Will come back next time when where in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r443880796-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443880796</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Jerald</t>
+  </si>
+  <si>
+    <t>Stayed couple times and enjoyed my stay so much that came back for a week again for work Christina and Tiffany helped me out with a room for me and my guys and had very nice customer service will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed couple times and enjoyed my stay so much that came back for a week again for work Christina and Tiffany helped me out with a room for me and my guys and had very nice customer service will be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r443126865-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443126865</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Leslie Gomez</t>
+  </si>
+  <si>
+    <t>Here for on business.Very nice and clean. CHRISTINA is very helpful and nice.Great customer services.Enjoyed my stay will be back next time in town.Thank you for going above and beyond.I recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Here for on business.Very nice and clean. CHRISTINA is very helpful and nice.Great customer services.Enjoyed my stay will be back next time in town.Thank you for going above and beyond.I recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r441117394-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441117394</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Customer service</t>
+  </si>
+  <si>
+    <t>This is a clean and quaint place to stay for business and for families. There are no thugs drug dealers are pants standing outside this is strictly A place for business and families. It is a very safe location and the women it at the front desk are amazing the best customer service I've ever experienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This is a clean and quaint place to stay for business and for families. There are no thugs drug dealers are pants standing outside this is strictly A place for business and families. It is a very safe location and the women it at the front desk are amazing the best customer service I've ever experienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r429505499-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429505499</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Gracious staff</t>
+  </si>
+  <si>
+    <t>Fantastic Staff!!!! Christine and Tasha are kind and caring people who really look out for the guests. The rooms are well kept and quiet. Easy access to highways 249 and 290, Willowbrook mall Methodist HospitalMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Fantastic Staff!!!! Christine and Tasha are kind and caring people who really look out for the guests. The rooms are well kept and quiet. Easy access to highways 249 and 290, Willowbrook mall Methodist HospitalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r429274056-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429274056</t>
+  </si>
+  <si>
+    <t>My stay at VP Willowbrook</t>
+  </si>
+  <si>
+    <t>Jessica and Christian have great customer service.  They are very professional and polite.  The maintenance department took care of bathroom lights that went out very quickly.  Room service is weekly, but towels and sheets can be taken to the front desk for exchange for new ones.  The hotel entry, elevator lobby, and corridors are mopped/vacuumed each morning.  The lobby, corridors, and rooms are very clean.  There are plenty of cable stations to choose from.  Dishes can be purchased at reasonable price for in-house cooking.  The Laundry Room has several coin operated machines.  I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jessica and Christian have great customer service.  They are very professional and polite.  The maintenance department took care of bathroom lights that went out very quickly.  Room service is weekly, but towels and sheets can be taken to the front desk for exchange for new ones.  The hotel entry, elevator lobby, and corridors are mopped/vacuumed each morning.  The lobby, corridors, and rooms are very clean.  There are plenty of cable stations to choose from.  Dishes can be purchased at reasonable price for in-house cooking.  The Laundry Room has several coin operated machines.  I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r412383807-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412383807</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff</t>
+  </si>
+  <si>
+    <t>Great experience love the staff clean rooms staff very nice keep the hallway clean an rooms fresh sheets and towels no noise from neighbor's no loitering outside clean stairways and elevator the wash room is ok I have enjoyed my time here so for will recommend it to othersMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Great experience love the staff clean rooms staff very nice keep the hallway clean an rooms fresh sheets and towels no noise from neighbor's no loitering outside clean stairways and elevator the wash room is ok I have enjoyed my time here so for will recommend it to othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r387909861-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387909861</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent staff top notch cleanliness</t>
+  </si>
+  <si>
+    <t>Their attention to detail is second to none. Christina and Jessica at the front desk were extremely helpful and friendly allowing me to check in early accommodating my travel plans. Tony does a exceptional job maintaining the property and went over and above protecting my valuables that I unintentionally left outside one afternoon by picking them up and storing them in the office for me until I realized what I had done. I can't thank the three of them enough for their dedication to making my stay a pleasant one by fulfilling my needs and going beyond the scope of their jobs to ensure I was taken care of during my time with their organization. Thanks y'all!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Their attention to detail is second to none. Christina and Jessica at the front desk were extremely helpful and friendly allowing me to check in early accommodating my travel plans. Tony does a exceptional job maintaining the property and went over and above protecting my valuables that I unintentionally left outside one afternoon by picking them up and storing them in the office for me until I realized what I had done. I can't thank the three of them enough for their dedication to making my stay a pleasant one by fulfilling my needs and going beyond the scope of their jobs to ensure I was taken care of during my time with their organization. Thanks y'all!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r382617150-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382617150</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Bob is absolutely the Best!</t>
+  </si>
+  <si>
+    <t>I have traveled for business for years and rarely would I stay at a small boutique hotel.  Value Place is a great value cost-wide, but also the room was clean, neat and fully functional.  The willowbrook location is offset residential area/the burbs and very quiet.Bob was absolutely one of the best front desk attendants.  He is consistent and friendly, which is a must for me.Thanks Bob for managing my stay!  Now I plan to stay in other Value Place hotels - my home away from home.  LaQueitta H.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>I have traveled for business for years and rarely would I stay at a small boutique hotel.  Value Place is a great value cost-wide, but also the room was clean, neat and fully functional.  The willowbrook location is offset residential area/the burbs and very quiet.Bob was absolutely one of the best front desk attendants.  He is consistent and friendly, which is a must for me.Thanks Bob for managing my stay!  Now I plan to stay in other Value Place hotels - my home away from home.  LaQueitta H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r373753303-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373753303</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay, clean and nice rooms for a great price.</t>
+  </si>
+  <si>
+    <t>I was very impressed with this place compared to other extended stay chain hotel I had stayed at.  Staff was much more helpful and on top of things and cleanliness of room was definitely superior.  Great deal for a budget extended stay hotel room!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very impressed with this place compared to other extended stay chain hotel I had stayed at.  Staff was much more helpful and on top of things and cleanliness of room was definitely superior.  Great deal for a budget extended stay hotel room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r361652754-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361652754</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>My family and I have been here since August 2015, waiting for our oldest to graduate from High school across the street and for our home to get built. It is April 2016 and we have a few more months here and I cannot complain! The staff is awesome!! Amanda she's an amazing person from day one..Marvin is great and very helpful(always)..Tony is always there when we need him non stop!! Bob is like our father away from home, always here to listen and help! Trina is the best and keeps the place smelling good and looking god! Everyone is great! Thanks for making our stay so comfortable and safe!! I'll recommend anyone to come stay or live here... Clean and safe!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>My family and I have been here since August 2015, waiting for our oldest to graduate from High school across the street and for our home to get built. It is April 2016 and we have a few more months here and I cannot complain! The staff is awesome!! Amanda she's an amazing person from day one..Marvin is great and very helpful(always)..Tony is always there when we need him non stop!! Bob is like our father away from home, always here to listen and help! Trina is the best and keeps the place smelling good and looking god! Everyone is great! Thanks for making our stay so comfortable and safe!! I'll recommend anyone to come stay or live here... Clean and safe!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r353870219-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353870219</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Management </t>
+  </si>
+  <si>
+    <t>Felt like home away from home       I stayed in one week from home on business my room was nice and clean the price was reasonable and the staff was extremely helpful specially the housekeeper edna Martinez anything you need she would help and friendly smile alwaysThey were extremely accommodating friendly the facility was very very maintained conveniently for traveling I would definitely recommend 100% to anyone to stay Thank u for the excellent service And for a great job to my house keeper Eda Martinez in Houston tx MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Felt like home away from home       I stayed in one week from home on business my room was nice and clean the price was reasonable and the staff was extremely helpful specially the housekeeper edna Martinez anything you need she would help and friendly smile alwaysThey were extremely accommodating friendly the facility was very very maintained conveniently for traveling I would definitely recommend 100% to anyone to stay Thank u for the excellent service And for a great job to my house keeper Eda Martinez in Houston tx More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r344367985-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344367985</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>Tony, Amanda, and Eda were all extremely acommodating and friendly. The facility was well maintained. The laundry machines conveniently accepted plastic. I would definitely recommend that anyone stay here. Thank you for the excellent service!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Tony, Amanda, and Eda were all extremely acommodating and friendly. The facility was well maintained. The laundry machines conveniently accepted plastic. I would definitely recommend that anyone stay here. Thank you for the excellent service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r343098752-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343098752</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Between Homes</t>
+  </si>
+  <si>
+    <t>Staff at Value Place have been great during my search for a new home. They have really made the transition period less difficult during this time. Location is great. Close to Willowbrook mall and numerous restaurants. Also close to State Highway 249 for easy access to various locations around the houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Staff at Value Place have been great during my search for a new home. They have really made the transition period less difficult during this time. Location is great. Close to Willowbrook mall and numerous restaurants. Also close to State Highway 249 for easy access to various locations around the houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r338538000-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338538000</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>The hotel public spaces and rooms are clean, facility personal are most friendly and very helpful. The facility is located near such that there is quick and easy access to freeways shopping mall and race track.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel public spaces and rooms are clean, facility personal are most friendly and very helpful. The facility is located near such that there is quick and easy access to freeways shopping mall and race track.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r309260530-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309260530</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Hidden gem if you are looking budget accomodations</t>
+  </si>
+  <si>
+    <t>I look for motels that are clean and safe at a reasonable price. I don't want to pay for amenities I don't use like free breakfast, pool or a gym. If you are like me, you will love Value Place Houston Willowbrook. They exceeded all my requirements and needs.
+My wife and I just sold our house and looking for a temporary place to stay that offers weekly rates. On Tripadvisor, this place has good reviews. We quickly took a look at the three room types and found them to be clean and to our liking. We asked the front office if we could check in for one night (@30% more than weekly rate) and if we like it then extend it to weekly rate and get weekly rate for the entire stay and found we could. So, we checked in for one night. We were happy with every single thing about the room. Everything in the room worked. The room has very efficient layout; so, we are able bring lots of our stuff into the room. Next morning, I extended the stay for a full week. I reported to the front office about 4 minor things to fix. The maintenance guy showed up at my room within minutes and fixed everything. At weekly rates, house-keeping is done only every two weeks. But this is ok because I was able to exchange dirty towels for fresh ones every day. They...I look for motels that are clean and safe at a reasonable price. I don't want to pay for amenities I don't use like free breakfast, pool or a gym. If you are like me, you will love Value Place Houston Willowbrook. They exceeded all my requirements and needs.My wife and I just sold our house and looking for a temporary place to stay that offers weekly rates. On Tripadvisor, this place has good reviews. We quickly took a look at the three room types and found them to be clean and to our liking. We asked the front office if we could check in for one night (@30% more than weekly rate) and if we like it then extend it to weekly rate and get weekly rate for the entire stay and found we could. So, we checked in for one night. We were happy with every single thing about the room. Everything in the room worked. The room has very efficient layout; so, we are able bring lots of our stuff into the room. Next morning, I extended the stay for a full week. I reported to the front office about 4 minor things to fix. The maintenance guy showed up at my room within minutes and fixed everything. At weekly rates, house-keeping is done only every two weeks. But this is ok because I was able to exchange dirty towels for fresh ones every day. They allow same thing with bed-sheets. The other long-stay guests are a mixture of out of town construction workers and families with small children.During our entire stay of of one week so far, there were no problems with other guests in terms of noise or not keeping the premises clean. We are going to extend our stay further until we find a permanent place. I am so impressed, I am actually thinking about buying their stock. Finally I would like acknowledge the hospitality shown by Matt and Andrea in the front office.MoreShow less</t>
+  </si>
+  <si>
+    <t>I look for motels that are clean and safe at a reasonable price. I don't want to pay for amenities I don't use like free breakfast, pool or a gym. If you are like me, you will love Value Place Houston Willowbrook. They exceeded all my requirements and needs.
+My wife and I just sold our house and looking for a temporary place to stay that offers weekly rates. On Tripadvisor, this place has good reviews. We quickly took a look at the three room types and found them to be clean and to our liking. We asked the front office if we could check in for one night (@30% more than weekly rate) and if we like it then extend it to weekly rate and get weekly rate for the entire stay and found we could. So, we checked in for one night. We were happy with every single thing about the room. Everything in the room worked. The room has very efficient layout; so, we are able bring lots of our stuff into the room. Next morning, I extended the stay for a full week. I reported to the front office about 4 minor things to fix. The maintenance guy showed up at my room within minutes and fixed everything. At weekly rates, house-keeping is done only every two weeks. But this is ok because I was able to exchange dirty towels for fresh ones every day. They...I look for motels that are clean and safe at a reasonable price. I don't want to pay for amenities I don't use like free breakfast, pool or a gym. If you are like me, you will love Value Place Houston Willowbrook. They exceeded all my requirements and needs.My wife and I just sold our house and looking for a temporary place to stay that offers weekly rates. On Tripadvisor, this place has good reviews. We quickly took a look at the three room types and found them to be clean and to our liking. We asked the front office if we could check in for one night (@30% more than weekly rate) and if we like it then extend it to weekly rate and get weekly rate for the entire stay and found we could. So, we checked in for one night. We were happy with every single thing about the room. Everything in the room worked. The room has very efficient layout; so, we are able bring lots of our stuff into the room. Next morning, I extended the stay for a full week. I reported to the front office about 4 minor things to fix. The maintenance guy showed up at my room within minutes and fixed everything. At weekly rates, house-keeping is done only every two weeks. But this is ok because I was able to exchange dirty towels for fresh ones every day. They allow same thing with bed-sheets. The other long-stay guests are a mixture of out of town construction workers and families with small children.During our entire stay of of one week so far, there were no problems with other guests in terms of noise or not keeping the premises clean. We are going to extend our stay further until we find a permanent place. I am so impressed, I am actually thinking about buying their stock. Finally I would like acknowledge the hospitality shown by Matt and Andrea in the front office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r309184654-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309184654</t>
+  </si>
+  <si>
+    <t>Hospitality 101</t>
+  </si>
+  <si>
+    <t>The family and I stayed here while waiting for our home to be ready for a move in. You cannot beat the cleanliness here or the really awesome team of people who take care of you. Lead by manager Matt and his crew of Tony and Bob...any problems or help you need they are quick to help you out. They made a difficult time for us so much more pleasant.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r304716361-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304716361</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I am new to the area and not only did I get welcomed, I was helped with getting familiar navigating my way around. Very pleased with the cleanliness of my room. It was a great value for the money and would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r282641407-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282641407</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Worth every dollar, just what I needed</t>
+  </si>
+  <si>
+    <t>Location is great-close to restaurants and shops, very safe area as it is near a high school, staff is very friendly, rooms are clean, perfect kitchen space, lots of parkingI had a great stay and will definitely stay here again if I need to. Highly recommend this placeI stayed for a week</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r273086402-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273086402</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>Matt and everyone do a very professional job.    Matt runs a very fine Value Place and I would highly recommend his facility looking for an excellent, well run and economical stay.  I'm down from Dallas on a business trip and it fit my needs very well.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r270247493-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270247493</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 17 months with our three children. Safety was our top priority and we always felt safe and secure living here. The staff is the best! They are so friendly and they are always there to help you with anything you need, day or night. We had family come and visit from Ohio and Matt, the manager, saved a room right next door so they could be close. Our family saved so much money spending the week here, instead of staying somewhere else. They loved it! The cleaning ladies are wonderful and work very hard keeping everything clean. The whole staff works hard keeping Value Place in tip top shape. Great new washers and dryers in the laundry room too! Also, there is a great park right up the road, Metske Park. Many stores and restaurants are down the road and there is quick access to the freeway. If you are looking for a place to stay for a week or longer that is affordable, safe, clean and friendly than this is the place for you! Thank you to all the staff at Value Place for everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 17 months with our three children. Safety was our top priority and we always felt safe and secure living here. The staff is the best! They are so friendly and they are always there to help you with anything you need, day or night. We had family come and visit from Ohio and Matt, the manager, saved a room right next door so they could be close. Our family saved so much money spending the week here, instead of staying somewhere else. They loved it! The cleaning ladies are wonderful and work very hard keeping everything clean. The whole staff works hard keeping Value Place in tip top shape. Great new washers and dryers in the laundry room too! Also, there is a great park right up the road, Metske Park. Many stores and restaurants are down the road and there is quick access to the freeway. If you are looking for a place to stay for a week or longer that is affordable, safe, clean and friendly than this is the place for you! Thank you to all the staff at Value Place for everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r253635873-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253635873</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>Stayed here while in between moves and have found the staff to be very helpful and the place is very clean and very safe. No frills but well worth the money. The facility has a very nice laundry room with very good washers and dryers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here while in between moves and have found the staff to be very helpful and the place is very clean and very safe. No frills but well worth the money. The facility has a very nice laundry room with very good washers and dryers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r235416033-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235416033</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Long term hotel stays</t>
+  </si>
+  <si>
+    <t>The Hotel is clean, nice &amp; safe. The staff is great and very accommodating. The Mgr. Matt and his staff, Brandy, Tony, Bob, and the housekeeping staff are top notch! Very highly recommend this location!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The Hotel is clean, nice &amp; safe. The staff is great and very accommodating. The Mgr. Matt and his staff, Brandy, Tony, Bob, and the housekeeping staff are top notch! Very highly recommend this location!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r224472299-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224472299</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Worth every penny!!</t>
+  </si>
+  <si>
+    <t>This is not a Hilton and there are not many frills.... If that is what I wanted that is where I would have stayed. But, for what I paid for a week... My room was clean and exactly what I needed. That is why I left 4 stars... The value for the money.. The fifth star was for the staff who made me feel like I was staying at a much mor expensive hotel. The manager, was extremely helpful as well as Bob who got me checked in even after the front desk was closed. Thank you  value place.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r207472091-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207472091</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Almost Home</t>
+  </si>
+  <si>
+    <t>We returned from 3 months in South America and needed a place close to our stored belongings and near our old stomping grounds.We knew we needed a place for 4-6 weeks and after doing some online comparisons, I found Value Place.The place isn't the Hilton or Four Seasons but for the price, which included WiFi and decent TV programming, we enjoyed our stay.  It is a no frills deal but the service that we got from Matt and his staff went above and beyond.  We would happily choose Value Place again when we return to the area.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r188387709-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188387709</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Too expensive, charges for everything, deposit withheld.</t>
+  </si>
+  <si>
+    <t>The sign said $269, but I ended up paying almost $360 per week.  They charge for every little thing and provide almost nothing in the way of service.  Then when I checked out and left my room spotless, they said the deposit money would be held by VISA for 10 to 15 days, and it wasn't their fault.   I STILL haven't gotten my deposit back!  Never again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r177129539-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177129539</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Bad service,Customer skills horrible.</t>
+  </si>
+  <si>
+    <t>Their logo says relax like at home.Rather satisfy the guest,it a dollar to satisfy the guest. You are offered cleaning every two weeks,god you have an accident you are charged for clean linens.You might as well stay elsewhere.cable goes out,if you using Wi-fi it also goes out.This has been the worst extended stay hotel.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1570,2890 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>258</v>
+      </c>
+      <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>258</v>
+      </c>
+      <c r="X34" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>342</v>
+      </c>
+      <c r="X41" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>342</v>
+      </c>
+      <c r="X42" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_681.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="578">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r583165821-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>2216547</t>
+  </si>
+  <si>
+    <t>583165821</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Woodspring Suite Willowbrook</t>
+  </si>
+  <si>
+    <t>This is a family friendly establishment. Sam is absolutely wonderful along with the rest of the staff. Very reasonably priced. The rooms are very comfortable and spacious. The staff address any concerns immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This is a family friendly establishment. Sam is absolutely wonderful along with the rest of the staff. Very reasonably priced. The rooms are very comfortable and spacious. The staff address any concerns immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r581414851-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581414851</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever</t>
+  </si>
+  <si>
+    <t>Woodspring Suite Willowbrook is 100% the Best!!!!The Staff is Awesome The Location is GreatIt’s Safe &amp; Quiet It’s easy access to Malls and Restaurants The Rooms are Perfect Gold Star for Woodspring!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Woodspring Suite Willowbrook is 100% the Best!!!!The Staff is Awesome The Location is GreatIt’s Safe &amp; Quiet It’s easy access to Malls and Restaurants The Rooms are Perfect Gold Star for Woodspring!!!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r579114760-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>2216547</t>
-  </si>
-  <si>
     <t>579114760</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 16, 2018</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>Stays here have been pretty good as far as hospitality goes. The cleaning crew have been prompt and management as well as the various staff members are great. Joni and Christina were helpful each day.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -234,9 +285,6 @@
     <t>I have really enjoyed my stay and I highly recommend WoodSpring Suites to anybody especially if you are staying a long period of time.It’s very clean, safe and even have an on-site laundry facility that’s very convieniant.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 1, 2018</t>
   </si>
   <si>
@@ -244,6 +292,45 @@
   </si>
   <si>
     <t>I have really enjoyed my stay and I highly recommend WoodSpring Suites to anybody especially if you are staying a long period of time.It’s very clean, safe and even have an on-site laundry facility that’s very convieniant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r576159205-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576159205</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>I just love everything about this hotel.The staff is very friendly,and helpful.The one named Sam was just excellent. I can't thank him enough.I enjoy the people who live here the most.Everyone treats you like family.I feel like im right at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I just love everything about this hotel.The staff is very friendly,and helpful.The one named Sam was just excellent. I can't thank him enough.I enjoy the people who live here the most.Everyone treats you like family.I feel like im right at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r575527486-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575527486</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Best staff around</t>
+  </si>
+  <si>
+    <t>I visit here quite regularly and I love the new staff they have here. Joni is an amazing front desk clerk. She is always helpful, happy, and accommodating. She never fails Togo me when I need it or to just say hello. The whole staff is great and I wouldn't stay anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>I visit here quite regularly and I love the new staff they have here. Joni is an amazing front desk clerk. She is always helpful, happy, and accommodating. She never fails Togo me when I need it or to just say hello. The whole staff is great and I wouldn't stay anywhere else.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r575068462-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
@@ -286,9 +373,6 @@
 We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for...I reserved a room in advance before coming out to come check in &amp; them telling me there’s no rooms available unless it’s on the smoking floor (which there reason to why was “I don’t know”) which I said yes too thinking it wasn’t going to be too bad. What am I supposed to do nearly 8pm with a baby. They told us they’d send towels up since they supposedly ran out. I went down &amp; got them myself 2 days later. People above us were constantly loud, sounded like throwing furniture. Sounded like people brought it their own speakers &amp; played loud music until 10pm which kept our baby up way past her bed time &amp; screwed up our sleep. Constant yelling &amp; slamming doors through out middle of night. The pillows &amp; bed bed are god awful uncomfortable. Some guests are pretty friendly then I got others banging on my wall, making my baby fall over. No, this hotel is not “family-friendly”. We have nice baby roach pets too. WiFi is always cutting out and it isn’t even worth connecting to. The carpet is dirty, walking around barefoot turns the bottom of my feet black. Don’t come unless you wanna wake up at 5am because you need to evacuate the building since the fire alarm is going off. We were originally were supposed to stay for 2 weeks but we cut it at 1 since I paid for 1. I don’t want to come back, don’t offer it. This place doesn’t make me feel one tiny little sliver bit safe.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded March 29, 2018</t>
   </si>
   <si>
@@ -317,30 +401,69 @@
     <t>I absolutely loved the stay here. The employee Sam that helped me was fantastic. He helped will all of my needs, answered all of my questions, and was super friendly. The rest of the staff was great as well. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r565163823-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565163823</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>This hotel is very inexpensive and has a wonderful staff. The kitchens are a good size, the beds are comfortable and the place is in a great location. My girlfriend and I are very pleased and will be back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is very inexpensive and has a wonderful staff. The kitchens are a good size, the beds are comfortable and the place is in a great location. My girlfriend and I are very pleased and will be back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r561719060-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561719060</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe place , family place, clean environment </t>
+  </si>
+  <si>
+    <t>Was referred  by a guest and I have to say the staff is so nice... the room are reasonably and environment  is family friendly ..they help with getting around the area ... the staff are professional  and the halls and stairwell is always clean MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Was referred  by a guest and I have to say the staff is so nice... the room are reasonably and environment  is family friendly ..they help with getting around the area ... the staff are professional  and the halls and stairwell is always clean More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r561713229-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
     <t>561713229</t>
   </si>
   <si>
-    <t>02/20/2018</t>
-  </si>
-  <si>
     <t>Awesome place</t>
   </si>
   <si>
     <t>This place is so clean. The office employees are very professional, helpful and super warming. I can't help coming back time after time. No drama or BS. You. An tell they appreciate their travelers. Amanda, Christina, Tiffany, Tony,  and Tristan are awesome employees very warm and family friendly place.  I recommend this place to my family and strangers. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 23, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 23, 2018</t>
-  </si>
-  <si>
     <t>This place is so clean. The office employees are very professional, helpful and super warming. I can't help coming back time after time. No drama or BS. You. An tell they appreciate their travelers. Amanda, Christina, Tiffany, Tony,  and Tristan are awesome employees very warm and family friendly place.  I recommend this place to my family and strangers. More</t>
   </si>
   <si>
@@ -392,6 +515,54 @@
     <t>I've been here for about 7 months now. You won't find better people than those employed here. The front desk crew are professional and really friendly. The maintenance responds immediately and again just a great person. The housekeeping is thorough, polite, and professional. Can't say enough about the staff. Definitely 5 Star Service. On another note, I was here before, during and after Hurricane Harvey and this place was a refuge for many people as it did not flood and the power stayed on while places 1 mile away in every direction were under 10 feet of water. They opened their door to displaced families and rescue workers alike. What a great experience!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r551552338-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551552338</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. The rooms are clean and the property is well maintained. I have stayed in plenty of hotels before and this by far has been my favorite place. I will be staying here again at some point I'm sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. The rooms are clean and the property is well maintained. I have stayed in plenty of hotels before and this by far has been my favorite place. I will be staying here again at some point I'm sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r547918565-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547918565</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay, amazing staff</t>
+  </si>
+  <si>
+    <t>The staff is fantastic. Super friendly and extremely helpful. There wasn't anything they didn't get when needed. Hotel is clean, quiet, roomy, and comfortable. Will definitely make this my place to stay each time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>The staff is fantastic. Super friendly and extremely helpful. There wasn't anything they didn't get when needed. Hotel is clean, quiet, roomy, and comfortable. Will definitely make this my place to stay each time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r503749801-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -458,15 +629,69 @@
     <t>I have been staying at the extended stay for 2 months..when I first arrived I wasnt exactly pleasedwiththe cleanliness of the beds.There was hair in the sheets but theydid offer to shampoo my carpet since I had an infant. The  Gm amanda and cristina were very helpful and informative. I was pleased that I was able to bring my dog with me as well. They have a clean laundry room and all the machines are always working. The staff is always friendly and helpful...I have never had any issues that werent resolved immediately, all around I have been very pleased with my stay and the pricing was very decent and I would recommend this place to friends and family .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r488510714-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488510714</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay </t>
+  </si>
+  <si>
+    <t>Me and my daughter enjoy staying here. The room was cleaned very good when we checked in. The hallways, outside area well kept up and clean. The office staff very nice and caring. The housekeeper made sure our room stayed clean n stocked.The location so close to some much. Shopping, restaurants , the YMCA where we was able to go have family time, movie theater. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Me and my daughter enjoy staying here. The room was cleaned very good when we checked in. The hallways, outside area well kept up and clean. The office staff very nice and caring. The housekeeper made sure our room stayed clean n stocked.The location so close to some much. Shopping, restaurants , the YMCA where we was able to go have family time, movie theater. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r484479191-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484479191</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Professional front desk staff</t>
+  </si>
+  <si>
+    <t>Great extended stay for the price, rooms are nice and clean. The front desk staff was very professional and very knowledgeable of our needs, i.e., the best shopping and eating establishments in the area. We would recommend this extended stay for short or long stays, the staff is great!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Great extended stay for the price, rooms are nice and clean. The front desk staff was very professional and very knowledgeable of our needs, i.e., the best shopping and eating establishments in the area. We would recommend this extended stay for short or long stays, the staff is great!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r484470688-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
     <t>484470688</t>
   </si>
   <si>
-    <t>05/15/2017</t>
-  </si>
-  <si>
     <t>Super Friendly and Helpful service</t>
   </si>
   <si>
@@ -476,12 +701,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded May 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 16, 2017</t>
-  </si>
-  <si>
     <t>The room was extremely clean &amp; the frpnt desk workers Amanda &amp; Jennifer were always very professional and polite!   The ground were kept clean and much more kept up at this location than other Woodsprings locations my company has used!More</t>
   </si>
   <si>
@@ -497,9 +716,6 @@
     <t>Excellent Value for the price. Always Clean, supportive and professional staff and great location. A safe place to stay. Always a parking space available.The laundry room is a fair rate and clean. The kitchen in the room is good size and very functional.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Excellent Value for the price. Always Clean, supportive and professional staff and great location. A safe place to stay. Always a parking space available.The laundry room is a fair rate and clean. The kitchen in the room is good size and very functional.More</t>
   </si>
   <si>
@@ -518,6 +734,54 @@
     <t>I travel to Houston at least once a month and I always stay at this hotel! The customer service is great, the room is always clean, and I love the location. I will continue to use this hotel on my trips to Houston!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r478606717-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478606717</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Decent room</t>
+  </si>
+  <si>
+    <t>Good budget hotel for a quick night stay due to a move and did not want to pay high dollar,  room was clean,  no ice machine or breakfast, staff friendly and helpful. Places to eat nearby.  Air conditioner worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Good budget hotel for a quick night stay due to a move and did not want to pay high dollar,  room was clean,  no ice machine or breakfast, staff friendly and helpful. Places to eat nearby.  Air conditioner worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r472226930-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472226930</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Fantastic extended stay hotel!</t>
+  </si>
+  <si>
+    <t>If you are looking for a budget-priced extended stay hotel, WoodSpring Suites is wonderful!  Unlike many (most) extended stay hotels, WoodSpring is very quiet and clean.  There is no loitering and there is no activity at all hours of the night.  The rooms have a full size fridge, microwave, and stovetop.  The rooms are nice-sized with a comfortable bed.  The staff is friendly and helpful.  The wifi is great!  WoodSpring Suites is a hidden gem and you won't find a better value for the money!MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for a budget-priced extended stay hotel, WoodSpring Suites is wonderful!  Unlike many (most) extended stay hotels, WoodSpring is very quiet and clean.  There is no loitering and there is no activity at all hours of the night.  The rooms have a full size fridge, microwave, and stovetop.  The rooms are nice-sized with a comfortable bed.  The staff is friendly and helpful.  The wifi is great!  WoodSpring Suites is a hidden gem and you won't find a better value for the money!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r462097836-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -593,6 +857,48 @@
     <t>Erin the front desk girl was very helpful and polite. She knows how to do her job all and all my stay there was great and will be staying there again soon I loved that all had vending machines awesomeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r458533065-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458533065</t>
+  </si>
+  <si>
+    <t>Great place to get away!!</t>
+  </si>
+  <si>
+    <t>Great customer service! Erin was so welcoming and actually listened to me when I had any questions/concerns! Rooms were spotless! Bed was also extremely comfortable. Quiet and peaceful surroundings, no annoying trains or loud highways. Flat screens in room were legit, and also have your choice of smoking or non. Either way no one bothers you, or disturbs you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great customer service! Erin was so welcoming and actually listened to me when I had any questions/concerns! Rooms were spotless! Bed was also extremely comfortable. Quiet and peaceful surroundings, no annoying trains or loud highways. Flat screens in room were legit, and also have your choice of smoking or non. Either way no one bothers you, or disturbs you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r447204977-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447204977</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>I like to stay here because is very clean, people are nice and is very quieter. Thanks to Christine  (help desk) she is very nice. I do recommend this hotel. Is close to the mall and many eating place it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Guest Relations Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>I like to stay here because is very clean, people are nice and is very quieter. Thanks to Christine  (help desk) she is very nice. I do recommend this hotel. Is close to the mall and many eating place it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r444335675-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -608,9 +914,6 @@
     <t>Came to stay for work.It was very clean and quite.The staff was very friendly.Christina had nice customer service and went over and beyond to make my stay GOOD.Will come back next time when where in town.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded December 20, 2016</t>
   </si>
   <si>
@@ -662,6 +965,42 @@
     <t>Here for on business.Very nice and clean. CHRISTINA is very helpful and nice.Great customer services.Enjoyed my stay will be back next time in town.Thank you for going above and beyond.I recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r442494748-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442494748</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome place!</t>
+  </si>
+  <si>
+    <t>I loved my stay at WoodSpring Suites in Willowbrook.. The facilities are great. The people are friendly and helpful.. No Hassle, no problems.... Tasha the desk clerk is very helpful at all hours.. When you have an issue, she'll always help out no matter the time. A+++MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved my stay at WoodSpring Suites in Willowbrook.. The facilities are great. The people are friendly and helpful.. No Hassle, no problems.... Tasha the desk clerk is very helpful at all hours.. When you have an issue, she'll always help out no matter the time. A+++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r442016504-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442016504</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Good Customer Service</t>
+  </si>
+  <si>
+    <t>The room is really good for the price, but Tasha's customer service made it even better.  Also this property is in a good location and they are quite. I would definitely stay here again with my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room is really good for the price, but Tasha's customer service made it even better.  Also this property is in a good location and they are quite. I would definitely stay here again with my family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r441117394-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -725,15 +1064,63 @@
     <t>Jessica and Christian have great customer service.  They are very professional and polite.  The maintenance department took care of bathroom lights that went out very quickly.  Room service is weekly, but towels and sheets can be taken to the front desk for exchange for new ones.  The hotel entry, elevator lobby, and corridors are mopped/vacuumed each morning.  The lobby, corridors, and rooms are very clean.  There are plenty of cable stations to choose from.  Dishes can be purchased at reasonable price for in-house cooking.  The Laundry Room has several coin operated machines.  I will be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r413736007-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413736007</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>The staff are very friendly.They help as much as they can.There is an on site laundry room which is great. Full refrigerator plus a stove top and microwave. And its not that far from shopping centers.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>The staff are very friendly.They help as much as they can.There is an on site laundry room which is great. Full refrigerator plus a stove top and microwave. And its not that far from shopping centers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r412527385-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412527385</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Eric García</t>
+  </si>
+  <si>
+    <t>I stayed for business nice and quiet. Felt well taken care of. The Manager and Assistance manager where very helpful. Very cheerful and friendly staff. It was very very clean but  maybe a upgrade on the bedding.Im just not into flower bedding.If your looking for great staff , clean room and quite place I recommend this hotel.You have my future business.Thank you Value Place staff for  your generosity and meeting my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for business nice and quiet. Felt well taken care of. The Manager and Assistance manager where very helpful. Very cheerful and friendly staff. It was very very clean but  maybe a upgrade on the bedding.Im just not into flower bedding.If your looking for great staff , clean room and quite place I recommend this hotel.You have my future business.Thank you Value Place staff for  your generosity and meeting my needs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r412383807-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
     <t>412383807</t>
   </si>
   <si>
-    <t>08/29/2016</t>
-  </si>
-  <si>
     <t>Amazing staff</t>
   </si>
   <si>
@@ -743,12 +1130,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Stephen S, General Manager at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded September 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 7, 2016</t>
-  </si>
-  <si>
     <t>Great experience love the staff clean rooms staff very nice keep the hallway clean an rooms fresh sheets and towels no noise from neighbor's no loitering outside clean stairways and elevator the wash room is ok I have enjoyed my time here so for will recommend it to othersMore</t>
   </si>
   <si>
@@ -803,6 +1184,45 @@
     <t>I have traveled for business for years and rarely would I stay at a small boutique hotel.  Value Place is a great value cost-wide, but also the room was clean, neat and fully functional.  The willowbrook location is offset residential area/the burbs and very quiet.Bob was absolutely one of the best front desk attendants.  He is consistent and friendly, which is a must for me.Thanks Bob for managing my stay!  Now I plan to stay in other Value Place hotels - my home away from home.  LaQueitta H.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r381250100-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381250100</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>A Great Place To Stay Overnight!</t>
+  </si>
+  <si>
+    <t>I'd like to thank Tony for excellent visit I had at Value Place. They really have good employees and great service and a clean Hotel. I can't remember when the last time I stayed at a motel with great with great prices then also had good service and a clean place to stay. I recommend Value Place to anyone who has family and who is traveling and needs a place to stay whether it's for one night or for a whole week.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'd like to thank Tony for excellent visit I had at Value Place. They really have good employees and great service and a clean Hotel. I can't remember when the last time I stayed at a motel with great with great prices then also had good service and a clean place to stay. I recommend Value Place to anyone who has family and who is traveling and needs a place to stay whether it's for one night or for a whole week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r378038344-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378038344</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>My family stayed here for 3 nights and the room was very well kept and clean. Our stay was made even more pleasant by a very nice and accommodating front desk manager  (Bob) who was extremely nice and always making sure we were enjoying our stay, always greeting us with a smile. We have even decided to extend our stay here due to the nice, clean room and extremely helpful and professional staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>My family stayed here for 3 nights and the room was very well kept and clean. Our stay was made even more pleasant by a very nice and accommodating front desk manager  (Bob) who was extremely nice and always making sure we were enjoying our stay, always greeting us with a smile. We have even decided to extend our stay here due to the nice, clean room and extremely helpful and professional staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r373753303-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -863,6 +1283,45 @@
     <t>Felt like home away from home       I stayed in one week from home on business my room was nice and clean the price was reasonable and the staff was extremely helpful specially the housekeeper edna Martinez anything you need she would help and friendly smile alwaysThey were extremely accommodating friendly the facility was very very maintained conveniently for traveling I would definitely recommend 100% to anyone to stay Thank u for the excellent service And for a great job to my house keeper Eda Martinez in Houston tx More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r348455269-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348455269</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Nice location not far from the Willowbrook mall &amp; grocery stores. The entire staff were kind, helpful &amp; attentive during each interaction especially Edna who made sure our room was tidy &amp; always had a wonderful genuine smile when we saw her. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Nice location not far from the Willowbrook mall &amp; grocery stores. The entire staff were kind, helpful &amp; attentive during each interaction especially Edna who made sure our room was tidy &amp; always had a wonderful genuine smile when we saw her. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r345403776-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345403776</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Best Management &amp; Staff</t>
+  </si>
+  <si>
+    <t>Our family is grateful for Value Place Willowbrook. The management and staff have made our extended stay here extremely pleasant. We feel safe and cared for. Thank you to Matt, Amanda, Tony, Bob, Marvin and everyone who works so hard to make this place a home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family is grateful for Value Place Willowbrook. The management and staff have made our extended stay here extremely pleasant. We feel safe and cared for. Thank you to Matt, Amanda, Tony, Bob, Marvin and everyone who works so hard to make this place a home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r344367985-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -878,9 +1337,6 @@
     <t>Tony, Amanda, and Eda were all extremely acommodating and friendly. The facility was well maintained. The laundry machines conveniently accepted plastic. I would definitely recommend that anyone stay here. Thank you for the excellent service!MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Tony, Amanda, and Eda were all extremely acommodating and friendly. The facility was well maintained. The laundry machines conveniently accepted plastic. I would definitely recommend that anyone stay here. Thank you for the excellent service!More</t>
   </si>
   <si>
@@ -921,6 +1377,42 @@
   </si>
   <si>
     <t>The hotel public spaces and rooms are clean, facility personal are most friendly and very helpful. The facility is located near such that there is quick and easy access to freeways shopping mall and race track.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r323811049-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323811049</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff make your stay even more comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here whilst attending a community function for two weeks. The manager Matt and all the staff at this place are very helpful and understanding. This place has real value for money.One of the staff - Bob, I found to be very helpful and efficient. The place was almost full all the time which goes to prove that they are doing something right.Overall, I would recommend this place to anyone running on a budget.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r317156656-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317156656</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Loved It!!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while visiting friends. My room was nice and clean, the price was reasonable, and the staff was very helpful!!! There was also a lot of things to do in this area. I  definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r309260530-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
@@ -955,9 +1447,6 @@
     <t>The family and I stayed here while waiting for our home to be ready for a move in. You cannot beat the cleanliness here or the really awesome team of people who take care of you. Lead by manager Matt and his crew of Tony and Bob...any problems or help you need they are quick to help you out. They made a difficult time for us so much more pleasant.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r304716361-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -967,12 +1456,42 @@
     <t>08/29/2015</t>
   </si>
   <si>
-    <t>Great Customer Service</t>
-  </si>
-  <si>
     <t>I am new to the area and not only did I get welcomed, I was helped with getting familiar navigating my way around. Very pleased with the cleanliness of my room. It was a great value for the money and would stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r304229119-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304229119</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Simple hotel</t>
+  </si>
+  <si>
+    <t>This is the 2nd time I have traveled to Houston and stayed at this hotel.  Best price in town still.  Great stay, great staff, great price.  Like I said before, this place is not luxurious but I pay out of pocket so this place is great for my per diem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r290425448-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290425448</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Very Good Hotel , terrific personnel and management</t>
+  </si>
+  <si>
+    <t>The Value Place Hotel in Willowbrook Houston is an excellent  value for money Hotel .Management and staff is really very very helpful and makes your every day life easier .It is very clean , safe , quiet and super family friendly .I stayed for a month there , saved a lot of money by eating with my son in the studio every day and I highly recommend it .</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r282641407-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1549,51 @@
     <t>My husband and I stayed here for 17 months with our three children. Safety was our top priority and we always felt safe and secure living here. The staff is the best! They are so friendly and they are always there to help you with anything you need, day or night. We had family come and visit from Ohio and Matt, the manager, saved a room right next door so they could be close. Our family saved so much money spending the week here, instead of staying somewhere else. They loved it! The cleaning ladies are wonderful and work very hard keeping everything clean. The whole staff works hard keeping Value Place in tip top shape. Great new washers and dryers in the laundry room too! Also, there is a great park right up the road, Metske Park. Many stores and restaurants are down the road and there is quick access to the freeway. If you are looking for a place to stay for a week or longer that is affordable, safe, clean and friendly than this is the place for you! Thank you to all the staff at Value Place for everything!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r255308444-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255308444</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home, and Friendly Staff to Boot!</t>
+  </si>
+  <si>
+    <t>I chose Value Place because it's affordable, long term, and safe.  The staff here made it even better by bending over backwards to help me out, and this was comforting as I was moving to the city.  So thanks to Brandi, Matt, and Bob! This location is perfect, too... It was close to any area of Houston I needed to get to.The only issue would be that some tenants were smokers (so common areas smelled of smoke at times) and/or loud, but let's be honest... That happens everywhere, and that is individual behavior, not the fault of the hotel or its staff.  I would definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I chose Value Place because it's affordable, long term, and safe.  The staff here made it even better by bending over backwards to help me out, and this was comforting as I was moving to the city.  So thanks to Brandi, Matt, and Bob! This location is perfect, too... It was close to any area of Houston I needed to get to.The only issue would be that some tenants were smokers (so common areas smelled of smoke at times) and/or loud, but let's be honest... That happens everywhere, and that is individual behavior, not the fault of the hotel or its staff.  I would definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r253692442-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253692442</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Been living here since May 2014</t>
+  </si>
+  <si>
+    <t>I love it here.  The hotel is clean, the staff is great.  I do not plan on leaving anytime soon.   You are not going to find a better place for your Buck.  The location is good and the people who also live here i have gotten to know   I love it here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I love it here.  The hotel is clean, the staff is great.  I do not plan on leaving anytime soon.   You are not going to find a better place for your Buck.  The location is good and the people who also live here i have gotten to know   I love it here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r253635873-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1048,12 +1612,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Sean A, Owner at WoodSpring Suites Houston Willowbrook, responded to this reviewResponded February 25, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 25, 2015</t>
-  </si>
-  <si>
     <t>Stayed here while in between moves and have found the staff to be very helpful and the place is very clean and very safe. No frills but well worth the money. The facility has a very nice laundry room with very good washers and dryers.More</t>
   </si>
   <si>
@@ -1096,6 +1654,36 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r222052464-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222052464</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Just what I needed!</t>
+  </si>
+  <si>
+    <t>Unlike most of the other people who travel for work, I do not get to expense my fancy hotel stays and big steak dinners.  I pay out of pocket.  I need something affordable.  Around Willowbrook, you get expensive Hilton Hotels or dumps like Inn Town Suites or Super 8.  When I stayed at the Value Place near Willowbrook, it was perfect.  Just what I needed.  Cheap rate.  Clean.  Friendly people.  Some of the guests may have been a bit odd, but it was fun getting to know everyone after staying there for two whole months!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r213481124-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213481124</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My stay at your facility for the past month has been an absolute pleasure. Your front desk personnel or "Brandi and Matt" have been outstanding in making my stay in studio 301 a true "home away from home". In fact the whole staff have been extremely professional in their relationship with the guests. I have no hesitation in recommending your facility and I have no objection to you using this message for advertising your excellent facility.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r207472091-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1733,27 @@
   </si>
   <si>
     <t>Their logo says relax like at home.Rather satisfy the guest,it a dollar to satisfy the guest. You are offered cleaning every two weeks,god you have an accident you are charged for clean linens.You might as well stay elsewhere.cable goes out,if you using Wi-fi it also goes out.This has been the worst extended stay hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2216547-r129464942-WoodSpring_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129464942</t>
+  </si>
+  <si>
+    <t>05/06/2012</t>
+  </si>
+  <si>
+    <t>Hotel did not honour my confirmed reservation.</t>
+  </si>
+  <si>
+    <t>This hotel did not honour my confirmed reservation the week of May 1 2012.  They provided no backup or alternate hotel.  There was a huge conference in Houston that week ....  it took hours for me to find another hotel room.  In any case this hotel should have provided an alternate, or contacted me to tell me no room was available,  I lodged a complaint with the customer support line ... never received a callback or explanation.  I never had the opportunity to speak with a hotel employee face to face because if you check in after hours there is no attendent in the lobby - rather you need to use the designated phone in the entranceway to get access to the hotel.  When I used the phone I was connected with a security guard that just kept repeating    " ... we have no rooms available .... "  .Good Luck !  Bill D.    Confirmation Number:Z4D7K5E4J.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This hotel did not honour my confirmed reservation the week of May 1 2012.  They provided no backup or alternate hotel.  There was a huge conference in Houston that week ....  it took hours for me to find another hotel room.  In any case this hotel should have provided an alternate, or contacted me to tell me no room was available,  I lodged a complaint with the customer support line ... never received a callback or explanation.  I never had the opportunity to speak with a hotel employee face to face because if you check in after hours there is no attendent in the lobby - rather you need to use the designated phone in the entranceway to get access to the hotel.  When I used the phone I was connected with a security guard that just kept repeating    " ... we have no rooms available .... "  .Good Luck !  Bill D.    Confirmation Number:Z4D7K5E4J.More</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +2352,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1758,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1780,34 +2389,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1819,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1841,25 +2450,25 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1868,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1923,13 +2532,13 @@
         <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1941,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1963,34 +2572,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2002,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
         <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
       </c>
       <c r="Y7" t="s">
         <v>98</v>
@@ -2048,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2063,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2085,34 +2694,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2124,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -2146,56 +2755,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2211,34 +2816,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" t="s">
-        <v>128</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2250,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2272,7 +2877,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2281,25 +2886,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2311,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -2333,34 +2938,34 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2372,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2394,58 +2999,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
         <v>146</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s">
-        <v>149</v>
-      </c>
-      <c r="L14" t="s">
-        <v>150</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2461,58 +3060,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" t="s">
         <v>155</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -2528,43 +3121,41 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2573,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -2595,56 +3186,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>166</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>167</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>168</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>169</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>170</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>171</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2660,58 +3247,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>176</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>177</v>
       </c>
-      <c r="K18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
       <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
         <v>180</v>
-      </c>
-      <c r="X18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -2727,34 +3314,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>185</v>
       </c>
-      <c r="K19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2766,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
         <v>188</v>
-      </c>
-      <c r="X19" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2788,34 +3375,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
         <v>191</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>192</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>193</v>
       </c>
-      <c r="K20" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" t="s">
-        <v>195</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2827,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -2849,34 +3436,34 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
         <v>200</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>201</v>
       </c>
-      <c r="J21" t="s">
-        <v>202</v>
-      </c>
-      <c r="K21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L21" t="s">
-        <v>204</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2888,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -2910,34 +3497,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
         <v>206</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>207</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>208</v>
       </c>
-      <c r="K22" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>196</v>
-      </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2949,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
         <v>211</v>
-      </c>
-      <c r="X22" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -2971,52 +3558,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
         <v>214</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>215</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>216</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>217</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>218</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -3032,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3041,10 +3634,10 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
         <v>224</v>
@@ -3053,35 +3646,37 @@
         <v>225</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
         <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
         <v>227</v>
-      </c>
-      <c r="X24" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -3097,43 +3692,43 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
         <v>230</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>231</v>
       </c>
-      <c r="J25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L25" t="s">
-        <v>233</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3142,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
@@ -3164,52 +3759,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
         <v>235</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>236</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y26" t="s">
         <v>237</v>
-      </c>
-      <c r="K26" t="s">
-        <v>238</v>
-      </c>
-      <c r="L26" t="s">
-        <v>239</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>241</v>
-      </c>
-      <c r="X26" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="27">
@@ -3225,52 +3826,58 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
         <v>244</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="Y27" t="s">
         <v>245</v>
-      </c>
-      <c r="J27" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>249</v>
-      </c>
-      <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>250</v>
-      </c>
-      <c r="X27" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="28">
@@ -3286,58 +3893,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
         <v>253</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K28" t="s">
-        <v>256</v>
-      </c>
-      <c r="L28" t="s">
-        <v>257</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>249</v>
-      </c>
-      <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>258</v>
-      </c>
-      <c r="X28" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="29">
@@ -3353,7 +3954,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3362,33 +3963,31 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
         <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3398,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
@@ -3420,52 +4019,58 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
         <v>267</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J30" t="s">
-        <v>269</v>
-      </c>
-      <c r="K30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L30" t="s">
-        <v>271</v>
-      </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
@@ -3481,34 +4086,34 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
         <v>274</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>275</v>
       </c>
-      <c r="J31" t="s">
-        <v>276</v>
-      </c>
-      <c r="K31" t="s">
-        <v>277</v>
-      </c>
-      <c r="L31" t="s">
-        <v>278</v>
-      </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3520,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
@@ -3542,34 +4147,34 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
         <v>281</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>282</v>
       </c>
-      <c r="J32" t="s">
-        <v>283</v>
-      </c>
-      <c r="K32" t="s">
-        <v>284</v>
-      </c>
-      <c r="L32" t="s">
-        <v>285</v>
-      </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3581,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -3603,56 +4208,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
         <v>288</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>289</v>
       </c>
-      <c r="J33" t="s">
-        <v>290</v>
-      </c>
-      <c r="K33" t="s">
-        <v>291</v>
-      </c>
-      <c r="L33" t="s">
-        <v>292</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>293</v>
-      </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -3668,53 +4269,49 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
         <v>295</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>296</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>297</v>
       </c>
-      <c r="K34" t="s">
-        <v>298</v>
-      </c>
-      <c r="L34" t="s">
-        <v>299</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
         <v>300</v>
@@ -3756,8 +4353,12 @@
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -3767,8 +4368,12 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>298</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
       <c r="Y35" t="s">
         <v>306</v>
       </c>
@@ -3798,22 +4403,22 @@
         <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3824,10 +4429,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -3843,7 +4452,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3852,33 +4461,31 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -3887,10 +4494,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>313</v>
+      </c>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
@@ -3906,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3915,39 +4526,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
       <c r="Y38" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
@@ -3963,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3972,43 +4593,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>312</v>
+      </c>
+      <c r="X39" t="s">
+        <v>313</v>
+      </c>
       <c r="Y39" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
@@ -4024,7 +4645,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4033,31 +4654,29 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K40" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
@@ -4068,10 +4687,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>340</v>
+      </c>
+      <c r="X40" t="s">
+        <v>341</v>
+      </c>
       <c r="Y40" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
@@ -4087,52 +4710,58 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
         <v>336</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>337</v>
-      </c>
-      <c r="J41" t="s">
-        <v>338</v>
-      </c>
       <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>339</v>
       </c>
-      <c r="L41" t="s">
-        <v>340</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>341</v>
-      </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="X41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -4148,7 +4777,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4157,34 +4786,34 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4193,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="X42" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Y42" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
@@ -4215,7 +4844,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4224,25 +4853,25 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>353</v>
       </c>
-      <c r="J43" t="s">
-        <v>354</v>
-      </c>
-      <c r="K43" t="s">
-        <v>355</v>
-      </c>
-      <c r="L43" t="s">
-        <v>356</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>357</v>
-      </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4253,10 +4882,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>362</v>
+      </c>
+      <c r="X43" t="s">
+        <v>363</v>
+      </c>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44">
@@ -4272,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4281,49 +4914,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
+        <v>366</v>
+      </c>
+      <c r="J44" t="s">
         <v>359</v>
       </c>
-      <c r="J44" t="s">
-        <v>360</v>
-      </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>354</v>
+      </c>
+      <c r="X44" t="s">
+        <v>355</v>
+      </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45">
@@ -4339,7 +4966,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4348,49 +4975,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
@@ -4406,7 +5027,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4415,45 +5036,1982 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>385</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>385</v>
+      </c>
+      <c r="X47" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>399</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>385</v>
+      </c>
+      <c r="X48" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>385</v>
+      </c>
+      <c r="X49" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>385</v>
+      </c>
+      <c r="X50" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>385</v>
+      </c>
+      <c r="X51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s">
+        <v>425</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>385</v>
+      </c>
+      <c r="X52" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>429</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s">
+        <v>431</v>
+      </c>
+      <c r="L53" t="s">
+        <v>432</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>426</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>385</v>
+      </c>
+      <c r="X53" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>426</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>385</v>
+      </c>
+      <c r="X54" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>441</v>
+      </c>
+      <c r="J55" t="s">
+        <v>442</v>
+      </c>
+      <c r="K55" t="s">
+        <v>443</v>
+      </c>
+      <c r="L55" t="s">
+        <v>444</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>385</v>
+      </c>
+      <c r="X55" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>419</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>385</v>
+      </c>
+      <c r="X56" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>218</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s">
+        <v>474</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>412</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>412</v>
+      </c>
+      <c r="O62" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>485</v>
+      </c>
+      <c r="J63" t="s">
+        <v>486</v>
+      </c>
+      <c r="K63" t="s">
+        <v>487</v>
+      </c>
+      <c r="L63" t="s">
+        <v>488</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>489</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>492</v>
+      </c>
+      <c r="K64" t="s">
+        <v>493</v>
+      </c>
+      <c r="L64" t="s">
+        <v>494</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>495</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" t="s">
+        <v>498</v>
+      </c>
+      <c r="K65" t="s">
+        <v>499</v>
+      </c>
+      <c r="L65" t="s">
+        <v>500</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>501</v>
+      </c>
+      <c r="O65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" t="s">
+        <v>504</v>
+      </c>
+      <c r="K66" t="s">
+        <v>505</v>
+      </c>
+      <c r="L66" t="s">
+        <v>506</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>507</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>509</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>510</v>
+      </c>
+      <c r="J67" t="s">
+        <v>511</v>
+      </c>
+      <c r="K67" t="s">
+        <v>512</v>
+      </c>
+      <c r="L67" t="s">
+        <v>513</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>514</v>
+      </c>
+      <c r="X67" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>517</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>518</v>
+      </c>
+      <c r="J68" t="s">
+        <v>519</v>
+      </c>
+      <c r="K68" t="s">
+        <v>520</v>
+      </c>
+      <c r="L68" t="s">
+        <v>521</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>522</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>514</v>
+      </c>
+      <c r="X68" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>524</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>525</v>
+      </c>
+      <c r="J69" t="s">
+        <v>526</v>
+      </c>
+      <c r="K69" t="s">
+        <v>527</v>
+      </c>
+      <c r="L69" t="s">
+        <v>528</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>529</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>514</v>
+      </c>
+      <c r="X69" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>531</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" t="s">
+        <v>533</v>
+      </c>
+      <c r="K70" t="s">
+        <v>534</v>
+      </c>
+      <c r="L70" t="s">
+        <v>535</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>536</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>514</v>
+      </c>
+      <c r="X70" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>538</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" t="s">
+        <v>540</v>
+      </c>
+      <c r="K71" t="s">
+        <v>541</v>
+      </c>
+      <c r="L71" t="s">
+        <v>542</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" t="s">
+        <v>546</v>
+      </c>
+      <c r="K72" t="s">
+        <v>547</v>
+      </c>
+      <c r="L72" t="s">
+        <v>548</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>507</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>550</v>
+      </c>
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+      <c r="K73" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s">
+        <v>553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>554</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>555</v>
+      </c>
+      <c r="J74" t="s">
+        <v>556</v>
+      </c>
+      <c r="K74" t="s">
+        <v>557</v>
+      </c>
+      <c r="L74" t="s">
+        <v>558</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>559</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>560</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>561</v>
+      </c>
+      <c r="J75" t="s">
+        <v>562</v>
+      </c>
+      <c r="K75" t="s">
+        <v>563</v>
+      </c>
+      <c r="L75" t="s">
+        <v>564</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>565</v>
+      </c>
+      <c r="O75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>566</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>374</v>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58439</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>572</v>
+      </c>
+      <c r="J77" t="s">
+        <v>573</v>
+      </c>
+      <c r="K77" t="s">
+        <v>574</v>
+      </c>
+      <c r="L77" t="s">
+        <v>575</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>576</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
